--- a/input_spreadsheets/Bangladesh/2016Oct/subregionSpreadsheets/Khulna.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Oct/subregionSpreadsheets/Khulna.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="-21140" windowWidth="19280" windowHeight="21140" tabRatio="500" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="2980" yWindow="-21140" windowWidth="19280" windowHeight="21140" tabRatio="500" firstSheet="16" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
     <author>Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="80">
   <si>
     <t>indicators</t>
   </si>
@@ -582,9 +582,6 @@
     <t>Vitamin A supplementation</t>
   </si>
   <si>
-    <t>Multiple micronutrient supplementation</t>
-  </si>
-  <si>
     <t>pregnant women</t>
   </si>
   <si>
@@ -625,6 +622,9 @@
   </si>
   <si>
     <t>Food security &amp; education</t>
+  </si>
+  <si>
+    <t>Antenatal micronutrient supplementation</t>
   </si>
 </sst>
 </file>
@@ -806,7 +806,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -838,7 +838,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1511,7 +1510,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3">
         <v>0.56799999999999995</v>
@@ -1519,17 +1518,17 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="24">
+        <v>71</v>
+      </c>
+      <c r="B6" s="23">
         <v>0.38900000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="25">
+        <v>72</v>
+      </c>
+      <c r="B7" s="24">
         <v>0.20599999999999999</v>
       </c>
     </row>
@@ -2746,7 +2745,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2797,7 +2796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2806,7 +2805,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -2914,7 +2913,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2945,7 +2944,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="7">
         <v>5.16</v>
@@ -2954,22 +2953,34 @@
         <v>5.16</v>
       </c>
       <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
         <v>1.82</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E3" s="12">
         <v>1.82</v>
       </c>
-      <c r="F2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
@@ -3190,10 +3201,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3220,16 +3231,16 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="B2" s="18">
+        <v>0.64500000000000002</v>
       </c>
       <c r="C2" s="2">
         <v>0.85</v>
       </c>
       <c r="D2" s="18">
-        <v>7.08</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="13"/>
@@ -3237,16 +3248,16 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B3" s="18">
-        <v>0.64500000000000002</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="C3" s="2">
         <v>0.85</v>
       </c>
       <c r="D3" s="18">
-        <v>0.35</v>
+        <v>3.56</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="13"/>
@@ -3257,13 +3268,13 @@
         <v>76</v>
       </c>
       <c r="B4" s="18">
-        <v>0.27100000000000002</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
         <v>0.85</v>
       </c>
       <c r="D4" s="18">
-        <v>3.56</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="13"/>
@@ -3271,33 +3282,33 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" s="18">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="C5" s="2">
         <v>0.85</v>
       </c>
       <c r="D5" s="18">
-        <v>48</v>
+        <v>3.56</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="13"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>75</v>
+      <c r="A6" t="s">
+        <v>77</v>
       </c>
       <c r="B6" s="18">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <v>0.85</v>
       </c>
       <c r="D6" s="18">
-        <v>3.56</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="13"/>
@@ -3305,7 +3316,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="18">
         <v>0</v>
@@ -3314,27 +3325,17 @@
         <v>0.85</v>
       </c>
       <c r="D7" s="18">
-        <v>25</v>
+        <v>1.81</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="13"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="18">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="D8" s="18">
-        <v>1.81</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3381,10 +3382,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
@@ -3429,10 +3427,6 @@
     <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3441,10 +3435,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3477,14 +3471,14 @@
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -3493,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -3507,7 +3501,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -3522,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
         <v>0</v>
@@ -3536,13 +3530,15 @@
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <f>demographics!$B$6</f>
+        <v>0.38900000000000001</v>
       </c>
       <c r="E4" s="5">
-        <v>1</v>
+        <f>demographics!$B$6</f>
+        <v>0.38900000000000001</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -3553,55 +3549,54 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <f>demographics!$B$6</f>
         <v>0.38900000000000001</v>
       </c>
-      <c r="E5" s="5">
-        <f>demographics!$B$6</f>
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -3619,32 +3614,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <f>demographics!$B$6</f>
-        <v>0.38900000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
@@ -3690,10 +3668,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
@@ -3738,10 +3713,6 @@
     <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3755,7 +3726,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3768,7 +3739,7 @@
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>46</v>
@@ -3785,10 +3756,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="14">
         <v>0.21</v>
@@ -3805,14 +3776,14 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="14">
-        <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
+        <f>demographics!$B$5 * 'Interventions target population'!$G$6</f>
         <v>0.22095199999999998</v>
       </c>
       <c r="D3" s="14">
-        <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
+        <f>demographics!$B$5 * 'Interventions target population'!$G$6</f>
         <v>0.22095199999999998</v>
       </c>
       <c r="E3" s="14">
@@ -3824,10 +3795,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="14">
         <v>0.1</v>
@@ -3844,7 +3815,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -3866,10 +3837,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3879,7 +3850,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -3902,7 +3873,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -3914,17 +3885,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="22">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="G2" s="22">
-        <v>0.29699999999999999</v>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="F2" s="21">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G2" s="21">
+        <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -3937,55 +3907,23 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="22">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="G3" s="22">
-        <v>0.29699999999999999</v>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="F4" s="22">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="G4" s="22">
-        <v>0.33500000000000002</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
@@ -3993,20 +3931,9 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4015,10 +3942,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4028,7 +3955,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4051,7 +3978,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4063,17 +3990,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F2" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G2" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -4087,54 +4013,22 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.3</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
@@ -4142,20 +4036,9 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4164,10 +4047,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4177,7 +4060,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4200,7 +4083,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4212,17 +4095,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="F2" s="2">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="G2" s="2">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -4236,54 +4118,22 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.62</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
@@ -4291,20 +4141,9 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4763,82 +4602,82 @@
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>65.274949586124677</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>63.766159590406737</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>49.282994005203946</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>28.209787731618295</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <v>25.489558200355106</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>23.240905571585429</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>22.703706446344178</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>31.544087717487031</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>34.113698352009095</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>33.409285701672637</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>12.069557793601408</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>11.790577447125642</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>16.992302791445777</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>28.600435082458773</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>32.537337077615049</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>2.4618732880914371</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>2.4049686131533625</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>3.1011437380135471</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>8.4951567672892381</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>8.4317600749960331</v>
       </c>
     </row>
@@ -4846,82 +4685,82 @@
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>56.582644501736077</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>55.274771749680653</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>57.026437051607147</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>53.516998700251762</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>47.765627255233817</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>23.256896312522745</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>22.719327571217384</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>22.524311883910794</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>29.302291880883097</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>37.506933607530364</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>18.323081075224021</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>17.899554414654929</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>15.393616796603245</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>13.148748818083824</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>12.551078417261834</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>4.8381357351388203</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>4.7263052267832135</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>5.1121260616226589</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>3.9614148462078842</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>2.0290173602528188</v>
       </c>
     </row>
@@ -5055,7 +4894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -5085,19 +4924,19 @@
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="25">
         <v>1.55</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>1.55</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="25">
         <v>2.36</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>1.91</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="25">
         <v>1.22</v>
       </c>
     </row>
